--- a/Output/Tables/table 4 - fuel type 2018 stats c_on-off.xlsx
+++ b/Output/Tables/table 4 - fuel type 2018 stats c_on-off.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
     <sheet name="fuel type 2018 stats c_on-off" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>fuel_type</t>
-  </si>
-  <si>
-    <t>c_on</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>quantity</t>
   </si>
@@ -64,6 +58,18 @@
   </si>
   <si>
     <t>Wind</t>
+  </si>
+  <si>
+    <t>Constrained</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
   </si>
 </sst>
 </file>
@@ -71,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,15 +210,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -559,9 +556,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -887,386 +883,404 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12773.946099999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-497.61762543959901</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-386.07665559630198</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-6356540.72577543</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-4931722.38905543</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0404340216666701</v>
+      </c>
+      <c r="D2" s="1">
+        <v>573.58483166468397</v>
+      </c>
+      <c r="E2" s="1">
+        <v>433.44763137119003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.59677717317588497</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.45097366228941799</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>312</v>
-      </c>
-      <c r="D3" s="2">
-        <v>18.006910000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>23.0078715384616</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5618.1559200000102</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7178.4559200000103</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.1970706666666698E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-9.7507796765961796</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-12.2372162483893</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-4.09247113577713E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-5.1360461357771302E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4428541.3377799997</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-24.2245635342647</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-17.781531878956802</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-107279481.001169</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-78746248.975013301</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>370.27097162249999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24.506212954963299</v>
+      </c>
+      <c r="E4" s="1">
+        <v>17.897463919908901</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.0739392816221507</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.6269113552033101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>213657.57373</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15.557864774589</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15.557864774589</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3324055.6401581201</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3324055.6401581201</v>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17.767189398333301</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-15.293879282923401</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-15.293879282923401</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.27172924985494601</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.27172924985494601</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>13690586.41275</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-15.903794050035399</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-12.773606470709399</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-217732266.73258901</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-174878163.18970999</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1140.5879291624999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15.9590068629402</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12.797784559733699</v>
+      </c>
+      <c r="F6" s="1">
+        <v>18.2026505892911</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14.596998588854499</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4918652.8733000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.9660893850673999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.3274830989882398</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14589164.0763264</v>
-      </c>
-      <c r="G7" s="2">
-        <v>21285387.178995699</v>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>410.42102161583398</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-2.9307510642234198</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-4.3269053232869004</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1.2028418458802599</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1.7758529032184001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>751538.73326999997</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-119.25979302763</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-66.582570614667304</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-89628353.782027602</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-50039380.777607404</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>62.418337964999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>121.49715271859201</v>
+      </c>
+      <c r="E8" s="1">
+        <v>66.995948442335006</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.5836503401742998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.1817757521593801</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>115431.44304</v>
-      </c>
-      <c r="D9" s="2">
-        <v>60.251602506684101</v>
-      </c>
-      <c r="E9" s="2">
-        <v>60.251602506684101</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6954929.4228190202</v>
-      </c>
-      <c r="G9" s="2">
-        <v>6954929.4228190202</v>
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.5639873949999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-61.224715182814599</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-61.224715182814599</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.58555240427090405</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.58555240427090405</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9065611.0604100004</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-133.01496207126101</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-123.17543699919401</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-1205861911.35324</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-1116660604.03072</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>753.07627227</v>
+      </c>
+      <c r="D10" s="1">
+        <v>134.21447960255199</v>
+      </c>
+      <c r="E10" s="1">
+        <v>123.970410934729</v>
+      </c>
+      <c r="F10" s="1">
+        <v>101.073739983747</v>
+      </c>
+      <c r="G10" s="1">
+        <v>93.359174938505603</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3364047.5690000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>60.232802033572298</v>
-      </c>
-      <c r="E11" s="2">
-        <v>60.2598909180684</v>
-      </c>
-      <c r="F11" s="2">
-        <v>202626011.255097</v>
-      </c>
-      <c r="G11" s="2">
-        <v>202717139.55113301</v>
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>279.763995280833</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-58.719059894740703</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-58.748024479537101</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-16.4274787952872</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-16.4355820432515</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>13916.069729999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-1465.30285102424</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-1013.1984417201101</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-20391256.650421102</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-14099740.165304299</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.20538735166667</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1529.9060667507299</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1055.14331345033</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.8441294220994302</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.27185640422868</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1216.0857000000001</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9798.1290274006606</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9798.1290274006606</v>
-      </c>
-      <c r="F13" s="2">
-        <v>11915364.5969769</v>
-      </c>
-      <c r="G13" s="2">
-        <v>11915364.5969769</v>
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.1810957500000003E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-8628.0078044512302</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-8628.0078044512302</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.70586557979962805</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-0.70586557979962805</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>389467.54210000002</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-337.55301418480002</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-33.939248614051003</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-131465942.763</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-13218235.7384353</v>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>31.071054315833297</v>
+      </c>
+      <c r="D14" s="1">
+        <v>331.90267959241402</v>
+      </c>
+      <c r="E14" s="1">
+        <v>33.093293919899303</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10.312566185186499</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0282435328750299</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>297729.67407000001</v>
-      </c>
-      <c r="D15" s="2">
-        <v>249.38274612859101</v>
-      </c>
-      <c r="E15" s="2">
-        <v>249.541603378243</v>
-      </c>
-      <c r="F15" s="2">
-        <v>74248643.723546997</v>
-      </c>
-      <c r="G15" s="2">
-        <v>74295940.240709499</v>
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>24.9738540041667</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-251.72684270620701</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-251.881466490387</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-6.2865894186746498</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-6.2904509704863107</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>18248806.10286</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-793.19582309989505</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-48.8029635949366</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-14474876777.3484</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-890595819.88893402</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3025564.8790000002</v>
-      </c>
-      <c r="D17" s="2">
-        <v>91.100327454330099</v>
-      </c>
-      <c r="E17" s="2">
-        <v>92.734927850072495</v>
-      </c>
-      <c r="F17" s="2">
-        <v>275629951.21122098</v>
-      </c>
-      <c r="G17" s="2">
-        <v>280575540.75977802</v>
+      <c r="C16" s="1">
+        <v>1508.7122434216701</v>
+      </c>
+      <c r="D16" s="1">
+        <v>795.23570448207499</v>
+      </c>
+      <c r="E16" s="1">
+        <v>48.7758947241934</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1199.7818437581602</v>
+      </c>
+      <c r="G16" s="1">
+        <v>73.588789554236911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>251.38262208750001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-86.159099898513603</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-87.897529765307098</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-21.6589004491872</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-22.095911507417</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>